--- a/test_case_data/bmc/bmc_illegal_study_20210513.xlsx
+++ b/test_case_data/bmc/bmc_illegal_study_20210513.xlsx
@@ -42,9 +42,6 @@
     <t>frontInterface</t>
   </si>
   <si>
-    <t>前置条件</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>reqData</t>
   </si>
   <si>
-    <t>预期结果</t>
-  </si>
-  <si>
     <t>expectData</t>
   </si>
   <si>
@@ -832,6 +826,14 @@
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/67491</t>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1221,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,673 +1268,673 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="O6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>

--- a/test_case_data/bmc/bmc_illegal_study_20210513.xlsx
+++ b/test_case_data/bmc/bmc_illegal_study_20210513.xlsx
@@ -503,10 +503,6 @@
     <t>/answer/detail</t>
   </si>
   <si>
-    <t>{"id":"995"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查询成绩只有错题记录成功</t>
   </si>
   <si>
@@ -702,6 +698,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>查询答题记录成功</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/67491</t>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recentGradeIllegalstudy001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{"</t>
     </r>
@@ -713,6 +727,85 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>pageIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pageSize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -724,7 +817,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>":</t>
+      <t>":1755</t>
     </r>
     <r>
       <rPr>
@@ -734,105 +827,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>995}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询答题记录成功</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/67491</t>
-  </si>
-  <si>
-    <t>frontCondition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recentGradeIllegalstudy001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pageIndex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pageSize</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20}</t>
-    </r>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"1755"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1280,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1743,17 +1743,17 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>26</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -1775,7 +1775,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>77</v>
@@ -1789,17 +1789,17 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>26</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -1821,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>77</v>
@@ -1836,14 +1836,14 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>26</v>
@@ -1853,20 +1853,20 @@
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
@@ -1877,17 +1877,17 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>26</v>
@@ -1897,20 +1897,20 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
@@ -1921,17 +1921,17 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>26</v>
@@ -1958,5 +1958,6 @@
     <hyperlink ref="O15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>